--- a/biology/Médecine/Claude_Malhuret/Claude_Malhuret.xlsx
+++ b/biology/Médecine/Claude_Malhuret/Claude_Malhuret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Claude Malhuret, né le 8 mars 1950 à Strasbourg, est un médecin, avocat et homme politique français.
@@ -516,36 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et formation
-Claude Malhuret est le fils de Robert et Simone Malhuret, respectivement dermatologue à Vichy et pharmacienne à Cusset[1]. Il suit sa scolarité au collège de Cusset[1] puis au lycée de Vichy. Il fait ensuite des études de médecine en 1966 à la faculté Cochin-Port-Royal de l'université Paris V[1]. Docteur en médecine, ancien interne des hôpitaux, il est également avocat, après des études de droit à la faculté de droit de l'université Paris I.
-Engagement humanitaire
-Il effectue son service militaire en 1973-1974 au titre de la coopération comme médecin-chef des hôpitaux d’El Aïoun et de Taourirt, au nord-est du Maroc. En 1975, il est médecin épidémiologiste pour l’Organisation mondiale de la santé (OMS) en Inde, au Bengale-Occidental[2].
-En 1976 et 1977, en Thaïlande, il est coordinateur des équipes médicales de l'association Médecins sans frontières (MSF) dans les camps de réfugiés cambodgiens, laotiens et vietnamiens. « Nous nous étions misérablement fourvoyés »[3], reconnaitra-t-il plus tard au sujet du génocide cambodgien[3], perpétré de 1975 à 1979 par les Khmers rouges, dont le chef principal était Pol Pot.
-En 1978, il est élu président de l'association malgré l’opposition de Bernard Kouchner, l'un de ses cofondateurs, qui quitte alors MSF, en désaccord sur le programme de développement proposé[4]. Claude Malhuret dirige l’association pendant huit ans[5],[6],[7].
-En 1980, il co-organise en Thaïlande la « Marche pour la survie du Cambodge » avec plusieurs personnalités médiatiques et artistiques, et y lit un discours rédigé par Bernard-Henri Lévy[8].
-Engagement politique
-Études
-Pendant ses études à l'hôpital Cochin[9], il "fréquente" l'Unef et la "tendance gauche ouvrière et paysanne" du Parti socialiste unifié[10], de Marc Heurgon, Alain Lipietz, Gustave Massiah, auquel il adhère avant son départ pour le Maroc[8], intégrer la commission Santé[11].
-La fondation "Libertés sans frontières"
-Il a pris ses distances avec le marxisme en 1977, au retour d'un voyage en Thaïlande[12].
-Devenu un proche d’Alain Madelin et de François Léotard, il soutient Valéry Giscard d'Estaing à l'élection présidentielle française de 1981[8]. Dans les années 1980, il fait partie de la « bande à Léo », des libéraux proches de François Léotard[2].
-Dans le sillage du livre de l'essayiste Pascal Bruckner, Le Sanglot de l'homme blanc, qui consacre toutes ses attentions polémiques au journal Le Monde diplomatique et qu'il cite régulièrement, il crée et préside en janvier 1985 la fondation « Liberté sans frontières », qui se donne pour mission de remettre en question les thèses tiers-mondistes sur le développement économique et social et de lutter contre les régimes totalitaires. Elle organise les 23 et 24 janvier 1985 au Sénat un colloque très médiatisé, « Le tiers-mondisme en question ». Jean-François Revel, Alain Besançon, Emmanuel Le Roy Ladurie, François Fejtő, Ilios Yannakakis font partie de son conseil d’administration. Claude Malhuret entraîne dans son sillage Rony Brauman, président de Médecins sans frontières[13].
-Participation au gouvernement de Jacques Chirac
-En 1986, sur la proposition d’Alain Madelin, Jacques Chirac, alors Premier ministre du premier gouvernement de cohabitation, nomme Claude Malhuret secrétaire d’État chargé des Droits de l’homme, un poste similaire au poste d'Assistant Secretary of State for Democracy, Human Rights, and Labor (en) aux États-Unis. Son nom est associé à la loi no 87-570 du 22 juillet 1987 sur l'exercice de l'autorité parentale.
-Député européen de 1989 à 1993, puis député en 1993 lors de la large victoire de la droite, il est battu lors de la défaite de la majorité lors des élections législatives qui suivent la dissolution de 1997.
-Maire et sénateur dans l'Allier
-En 1989, Claude Malhuret est élu maire de Vichy. Il est réélu en 1995, 2001, 2008 et 2014. Cette même année il est élu président de la communauté d'agglomération de Vichy Val d'Allier (puis de Vichy Communauté le 19 janvier 2017[14]). Il a également été élu conseiller régional d’Auvergne de 2004 à 2014.
-Le 28 septembre 2014, il est élu sénateur de l'Allier[15].
-Il est président de la fédération départementale de l’Allier du parti Les Républicains de 2007 à 2017[16].
-En 2016, il soutient Alain Juppé pour la primaire de la droite et du centre. Le 3 mars 2017, dans le contexte de l'affaire Fillon, il décide de ne plus apporter son soutien au candidat LR, François Fillon, pour l'élection présidentielle[17]. Membre fondateur du nouveau parti Agir, la droite constructive, créé en novembre 2017 à la suite de la refonte du paysage politique qui a suivi l'élection d'Emmanuel Macron à la présidence de la République, il quitte dans la foulée Les Républicains[16].
-La loi sur le cumul des mandats ne permettant plus d'être à la fois maire et parlementaire, Claude Malhuret décide, le 22 septembre 2017, d'abandonner son mandat de maire de Vichy (remplacé par son troisième adjoint Frédéric Aguilera) et de rester au Sénat[18]. Il annonce par ailleurs la constitution d'un groupe « Constructifs »[19].
-En juillet 2019, il demande l'interdiction des chaînes de télévision russes Russia Today et de Sputnik, avançant que « ce ne sont pas des médias, ce sont des organes d’influence, et c’est le président de la République qui l’a dit très clairement[20] ».
-En septembre 2020, il est réélu sénateur de l'Allier.
-En décembre 2021, il rejoint le parti de l'ancien Premier ministre Édouard Philippe, Horizons[21].
-Doctissimo
-En 1999, entamant une nouvelle carrière professionnelle, il conçoit et lance avec Laurent Alexandre (également médecin) le site web Doctissimo[22], seul portail-santé à survivre à la bulle Internet du début des années 2000. Succès de l'internet français, Doctissimo est vendu au groupe Lagardère en 2008 ; Claude Malhuret avait cédé ses actions au plus bas deux ans plus tôt (« la connerie de [sa] vie », selon lui)[23].
-Korian
-De 2003 à octobre 2014[23], Claude Malhuret est le directeur du développement éthique de Korian, une entreprise de gestion de maisons de retraite médicalisées (EHPAD)[24],[25].
+          <t>Famille et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Malhuret est le fils de Robert et Simone Malhuret, respectivement dermatologue à Vichy et pharmacienne à Cusset. Il suit sa scolarité au collège de Cusset puis au lycée de Vichy. Il fait ensuite des études de médecine en 1966 à la faculté Cochin-Port-Royal de l'université Paris V. Docteur en médecine, ancien interne des hôpitaux, il est également avocat, après des études de droit à la faculté de droit de l'université Paris I.
 </t>
         </is>
       </c>
@@ -571,12 +560,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Synthèse des résultats électoraux</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Élections sénatoriales</t>
+          <t>Engagement humanitaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il effectue son service militaire en 1973-1974 au titre de la coopération comme médecin-chef des hôpitaux d’El Aïoun et de Taourirt, au nord-est du Maroc. En 1975, il est médecin épidémiologiste pour l’Organisation mondiale de la santé (OMS) en Inde, au Bengale-Occidental.
+En 1976 et 1977, en Thaïlande, il est coordinateur des équipes médicales de l'association Médecins sans frontières (MSF) dans les camps de réfugiés cambodgiens, laotiens et vietnamiens. « Nous nous étions misérablement fourvoyés », reconnaitra-t-il plus tard au sujet du génocide cambodgien, perpétré de 1975 à 1979 par les Khmers rouges, dont le chef principal était Pol Pot.
+En 1978, il est élu président de l'association malgré l’opposition de Bernard Kouchner, l'un de ses cofondateurs, qui quitte alors MSF, en désaccord sur le programme de développement proposé. Claude Malhuret dirige l’association pendant huit ans.
+En 1980, il co-organise en Thaïlande la « Marche pour la survie du Cambodge » avec plusieurs personnalités médiatiques et artistiques, et y lit un discours rédigé par Bernard-Henri Lévy.
+</t>
         </is>
       </c>
     </row>
@@ -601,10 +600,244 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant ses études à l'hôpital Cochin, il "fréquente" l'Unef et la "tendance gauche ouvrière et paysanne" du Parti socialiste unifié, de Marc Heurgon, Alain Lipietz, Gustave Massiah, auquel il adhère avant son départ pour le Maroc, intégrer la commission Santé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claude_Malhuret</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Malhuret</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La fondation "Libertés sans frontières"</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a pris ses distances avec le marxisme en 1977, au retour d'un voyage en Thaïlande.
+Devenu un proche d’Alain Madelin et de François Léotard, il soutient Valéry Giscard d'Estaing à l'élection présidentielle française de 1981. Dans les années 1980, il fait partie de la « bande à Léo », des libéraux proches de François Léotard.
+Dans le sillage du livre de l'essayiste Pascal Bruckner, Le Sanglot de l'homme blanc, qui consacre toutes ses attentions polémiques au journal Le Monde diplomatique et qu'il cite régulièrement, il crée et préside en janvier 1985 la fondation « Liberté sans frontières », qui se donne pour mission de remettre en question les thèses tiers-mondistes sur le développement économique et social et de lutter contre les régimes totalitaires. Elle organise les 23 et 24 janvier 1985 au Sénat un colloque très médiatisé, « Le tiers-mondisme en question ». Jean-François Revel, Alain Besançon, Emmanuel Le Roy Ladurie, François Fejtő, Ilios Yannakakis font partie de son conseil d’administration. Claude Malhuret entraîne dans son sillage Rony Brauman, président de Médecins sans frontières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claude_Malhuret</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Malhuret</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Participation au gouvernement de Jacques Chirac</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1986, sur la proposition d’Alain Madelin, Jacques Chirac, alors Premier ministre du premier gouvernement de cohabitation, nomme Claude Malhuret secrétaire d’État chargé des Droits de l’homme, un poste similaire au poste d'Assistant Secretary of State for Democracy, Human Rights, and Labor (en) aux États-Unis. Son nom est associé à la loi no 87-570 du 22 juillet 1987 sur l'exercice de l'autorité parentale.
+Député européen de 1989 à 1993, puis député en 1993 lors de la large victoire de la droite, il est battu lors de la défaite de la majorité lors des élections législatives qui suivent la dissolution de 1997.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Claude_Malhuret</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Malhuret</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Maire et sénateur dans l'Allier</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1989, Claude Malhuret est élu maire de Vichy. Il est réélu en 1995, 2001, 2008 et 2014. Cette même année il est élu président de la communauté d'agglomération de Vichy Val d'Allier (puis de Vichy Communauté le 19 janvier 2017). Il a également été élu conseiller régional d’Auvergne de 2004 à 2014.
+Le 28 septembre 2014, il est élu sénateur de l'Allier.
+Il est président de la fédération départementale de l’Allier du parti Les Républicains de 2007 à 2017.
+En 2016, il soutient Alain Juppé pour la primaire de la droite et du centre. Le 3 mars 2017, dans le contexte de l'affaire Fillon, il décide de ne plus apporter son soutien au candidat LR, François Fillon, pour l'élection présidentielle. Membre fondateur du nouveau parti Agir, la droite constructive, créé en novembre 2017 à la suite de la refonte du paysage politique qui a suivi l'élection d'Emmanuel Macron à la présidence de la République, il quitte dans la foulée Les Républicains.
+La loi sur le cumul des mandats ne permettant plus d'être à la fois maire et parlementaire, Claude Malhuret décide, le 22 septembre 2017, d'abandonner son mandat de maire de Vichy (remplacé par son troisième adjoint Frédéric Aguilera) et de rester au Sénat. Il annonce par ailleurs la constitution d'un groupe « Constructifs ».
+En juillet 2019, il demande l'interdiction des chaînes de télévision russes Russia Today et de Sputnik, avançant que « ce ne sont pas des médias, ce sont des organes d’influence, et c’est le président de la République qui l’a dit très clairement ».
+En septembre 2020, il est réélu sénateur de l'Allier.
+En décembre 2021, il rejoint le parti de l'ancien Premier ministre Édouard Philippe, Horizons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Claude_Malhuret</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Malhuret</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Doctissimo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1999, entamant une nouvelle carrière professionnelle, il conçoit et lance avec Laurent Alexandre (également médecin) le site web Doctissimo, seul portail-santé à survivre à la bulle Internet du début des années 2000. Succès de l'internet français, Doctissimo est vendu au groupe Lagardère en 2008 ; Claude Malhuret avait cédé ses actions au plus bas deux ans plus tôt (« la connerie de [sa] vie », selon lui).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Claude_Malhuret</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Malhuret</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Korian</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 2003 à octobre 2014, Claude Malhuret est le directeur du développement éthique de Korian, une entreprise de gestion de maisons de retraite médicalisées (EHPAD),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Claude_Malhuret</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Malhuret</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Les Vices de la vertu ou la Fin de la gauche morale, éditions Robert Laffont, 2003, 270 p. (ISBN 2221099486).</t>
         </is>
